--- a/Exercises/FileEditing/1MonthOfLaunches.xlsx
+++ b/Exercises/FileEditing/1MonthOfLaunches.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dde11ac964888d37/Documents/GitHub/PythonBasics/Exercises/FileEditing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D23CED1-B50B-4FF9-B00F-C967D3C3ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{0D23CED1-B50B-4FF9-B00F-C967D3C3ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F0CD263-FE0C-4B95-9FDE-6E301E58BA8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B4907996-7841-4602-B209-C35A2BFF93B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Spacecraft</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>Launch Date</t>
   </si>
   <si>
     <t>Yaogan 35 Group 06 (?)</t>
@@ -221,10 +218,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BE4C72-4ABA-4182-B3C9-97E367735BC5}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,11 +545,10 @@
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,265 +559,217 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>44830</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44830</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
-        <v>44833</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
-        <v>44833</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
-        <v>44834</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1">
-        <v>44834</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1">
-        <v>44836</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1">
-        <v>44837</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44839</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1">
-        <v>44839</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44840</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1">
-        <v>44844</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1">
-        <v>44845</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1">
-        <v>44847</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1">
-        <v>44855</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
